--- a/lab3/Experiment 4/all.xlsx
+++ b/lab3/Experiment 4/all.xlsx
@@ -4800,17 +4800,34 @@
                   <c:y val="-0.35373487168270634"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -0.7414x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(V)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 5.4377
+R² = 0.9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -5115,17 +5132,24 @@
                   <c:y val="-0.39461869349664624"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -1.4299x(V) + 5.7957
+R² = 0.9998</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -5379,17 +5403,34 @@
                   <c:y val="-0.37320519830854476"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -2.0913x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(V)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 6.1435
+R² = 0.9997</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -5598,17 +5639,34 @@
                   <c:y val="-0.34645158938466025"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -2.7222x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(V)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 6.4672
+R² = 0.9994</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -5777,11 +5835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46691968"/>
-        <c:axId val="46692544"/>
+        <c:axId val="555900224"/>
+        <c:axId val="578068480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46691968"/>
+        <c:axId val="555900224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,12 +5878,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46692544"/>
+        <c:crossAx val="578068480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46692544"/>
+        <c:axId val="578068480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,7 +5923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46691968"/>
+        <c:crossAx val="555900224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8340,17 +8398,34 @@
                   <c:y val="-3.799274457480413E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.0039x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(V)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 2.7574
+R² = 0.0003</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -8496,17 +8571,34 @@
                   <c:y val="-2.5345660901443835E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -0.0086x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(V)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 2.0865
+R² = 0.0011</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -8687,17 +8779,34 @@
                   <c:y val="-1.0910467706458742E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.0094x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(V)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 1.4564
+R² = 0.0109</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -8914,17 +9023,24 @@
                   <c:y val="1.2600756138689974E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -0.0211x(V) - 0.6846
+R² = 0.2186</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -9189,11 +9305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="566297152"/>
-        <c:axId val="566298304"/>
+        <c:axId val="578073088"/>
+        <c:axId val="578073664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="566297152"/>
+        <c:axId val="578073088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9232,12 +9348,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566298304"/>
+        <c:crossAx val="578073664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566298304"/>
+        <c:axId val="578073664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9282,7 +9398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566297152"/>
+        <c:crossAx val="578073088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10378,8 +10494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20418,8 +20534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView topLeftCell="N13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
